--- a/backend/fms_core/tests/valid_templates/Library_capture_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Library_capture_v4_4_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Capture Batch" sheetId="1" state="visible" r:id="rId2"/>
@@ -907,13 +907,13 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
@@ -1048,56 +1048,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -1203,7 +1191,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1557,11 +1545,15 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="13"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -2664,8 +2656,8 @@
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="I167" s="13"/>
@@ -3117,7 +3109,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="13"/>
+      <c r="F217" s="2"/>
       <c r="I217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4593,6 +4585,8 @@
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
+      <c r="F381" s="13"/>
+      <c r="I381" s="13"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
@@ -8899,57 +8893,63 @@
       <c r="D996" s="2"/>
       <c r="E996" s="2"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:B381" type="list">
       <formula1>Index!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8:E380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E381" type="list">
       <formula1>Index!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K8:K43" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K9:K44" type="list">
       <formula1>Index!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8:F380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F381" type="list">
       <formula1>Index!$C$2:$C$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H8:H380" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H381" type="list">
       <formula1>Index!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I8:I380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I9:I381" type="list">
       <formula1>Index!$E$2:$E$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="list">
       <formula1>Info!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8" type="list">
       <formula1>Info!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8" type="list">
       <formula1>Info!$C$2:$C$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H8" type="list">
       <formula1>Info!$D$2:$D$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I8" type="list">
       <formula1>Info!$E$2:$E$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K8" type="list">
       <formula1>Info!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8969,15 +8969,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
@@ -9193,54 +9193,54 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="0" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19" t="n">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19" t="n">
         <v>800</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
@@ -9398,7 +9398,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10448,6 +10448,8 @@
       <c r="K101" s="19"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="18"/>
@@ -11759,13 +11761,15 @@
       <c r="M220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2"/>
+      <c r="A221" s="18"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="H221" s="13"/>
-      <c r="K221" s="2"/>
+      <c r="D221" s="18"/>
+      <c r="H221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="19"/>
       <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
@@ -14103,6 +14107,7 @@
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
+      <c r="H481" s="13"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
@@ -18258,29 +18263,37 @@
       <c r="K1000" s="2"/>
       <c r="L1000" s="2"/>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H8:H480" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H481" type="list">
       <formula1>Index!$G$2:$G$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A8:A100" type="list">
-      <formula1>'Capture Batch'!$A$7:$A$106</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A101" type="list">
+      <formula1>'Capture Batch'!$A$8:$A$107</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O8:O100" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O9:O101" type="list">
       <formula1>Index!$H$2:$H$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A7" type="list">
-      <formula1>'Capture Batch'!$A$10:$A$109</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A8" type="list">
+      <formula1>'Capture Batch'!$A$11:$A$110</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5:H8" type="list">
       <formula1>Info!$G$2:$G$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O8" type="list">
       <formula1>Info!$H$2:$H$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18306,7 +18319,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.4"/>
   </cols>
@@ -19833,7 +19846,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
